--- a/data/cases.xlsx
+++ b/data/cases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="21825" windowHeight="14025" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -367,24 +367,24 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col width="11.125" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.08984375" customWidth="1" style="1" min="1" max="1"/>
     <col width="23" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="9.25" customWidth="1" style="1" min="4" max="4"/>
-    <col width="41.875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="38.5" customWidth="1" style="2" min="6" max="6"/>
-    <col width="11.875" customWidth="1" style="1" min="7" max="7"/>
-    <col width="24.875" customWidth="1" style="1" min="8" max="8"/>
-    <col width="43.125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="27.625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="9" customWidth="1" style="1" min="11" max="24"/>
-    <col width="9" customWidth="1" style="1" min="25" max="16384"/>
+    <col width="12.6328125" customWidth="1" style="1" min="3" max="3"/>
+    <col width="9.26953125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="41.90625" customWidth="1" style="1" min="5" max="5"/>
+    <col width="38.453125" customWidth="1" style="2" min="6" max="6"/>
+    <col width="11.90625" customWidth="1" style="1" min="7" max="7"/>
+    <col width="24.90625" customWidth="1" style="1" min="8" max="8"/>
+    <col width="43.08984375" customWidth="1" style="1" min="9" max="9"/>
+    <col width="27.6328125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9" customWidth="1" style="1" min="11" max="28"/>
+    <col width="9" customWidth="1" style="1" min="29" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1">
@@ -611,7 +611,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="53.25" customHeight="1">
+    <row r="6" ht="68" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>{'username': 'aaaaaaaaaabbbbbbb004','email': '*email*','password':'123456','password_confirm': '123456'}</t>
+          <t>{'username': 'aaaaaaaaaabbbbbbb007','email': '*email*','password':'123456','password_confirm': '123456'}</t>
         </is>
       </c>
       <c r="G7" s="1" t="n">
@@ -688,12 +688,12 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>SELECT id FROM auth_user WHERE username = 'aaaaaaaaaabbbbbbb004'</t>
+          <t>SELECT id FROM auth_user WHERE username = 'aaaaaaaaaabbbbbbb007'</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1188,19 +1188,19 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="15.875" customWidth="1" min="2" max="2"/>
-    <col width="14.375" customWidth="1" min="3" max="4"/>
-    <col width="37.375" customWidth="1" min="5" max="5"/>
-    <col width="41.25" customWidth="1" min="6" max="6"/>
-    <col width="13.375" customWidth="1" min="7" max="7"/>
-    <col width="35.625" customWidth="1" min="8" max="8"/>
-    <col width="39.125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="12.75" customWidth="1" min="10" max="10"/>
+    <col width="15.90625" customWidth="1" min="2" max="2"/>
+    <col width="14.36328125" customWidth="1" min="3" max="4"/>
+    <col width="37.36328125" customWidth="1" min="5" max="5"/>
+    <col width="41.26953125" customWidth="1" min="6" max="6"/>
+    <col width="13.36328125" customWidth="1" min="7" max="7"/>
+    <col width="35.6328125" customWidth="1" min="8" max="8"/>
+    <col width="39.08984375" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12.7265625" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="G2" s="1" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H2" s="1" t="n"/>
       <c r="I2" s="1" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1526,20 +1526,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="17.125" customWidth="1" min="2" max="2"/>
-    <col width="11.875" customWidth="1" min="3" max="3"/>
-    <col width="19.5" customWidth="1" min="5" max="5"/>
-    <col width="49.5" customWidth="1" min="6" max="6"/>
-    <col width="16.125" customWidth="1" min="7" max="7"/>
-    <col width="13.375" customWidth="1" min="8" max="8"/>
+    <col width="17.08984375" customWidth="1" min="2" max="2"/>
+    <col width="11.90625" customWidth="1" min="3" max="3"/>
+    <col width="19.453125" customWidth="1" min="5" max="5"/>
+    <col width="49.453125" customWidth="1" min="6" max="6"/>
+    <col width="16.08984375" customWidth="1" min="7" max="7"/>
+    <col width="13.36328125" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1584,18 +1584,18 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1">
+    <row r="2" ht="54" customHeight="1">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>正常登录</t>
+          <t>正常添加</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>add_project</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1603,60 +1603,22 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>user/login/</t>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>projects/</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>{'username': '#username#','password': '#password#'}</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="n">
+          <t>{'name': '*project_name*','leader': '*leader*','tester':'*tester*','programmer':'*programmer*','publish_app':'*publish_app*','desc':'*desc*'}</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>201</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="54" customHeight="1">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>正常添加</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>add_project</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>project/</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>{'name': '*project_name*','leader': '*leader*','tester':'*tester*','programmer':'*programmer*','publish_app':'*publish_app*','desc':'*desc*'}</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>201</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>未通过</t>
+          <t>通过</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1643,12 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <cols>
-    <col width="14.875" customWidth="1" min="2" max="2"/>
-    <col width="15.125" customWidth="1" min="5" max="5"/>
-    <col width="38.25" customWidth="1" min="6" max="6"/>
-    <col width="40.875" customWidth="1" min="8" max="8"/>
+    <col width="14.90625" customWidth="1" min="2" max="2"/>
+    <col width="15.08984375" customWidth="1" min="5" max="5"/>
+    <col width="38.26953125" customWidth="1" min="6" max="6"/>
+    <col width="40.90625" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1775,7 +1737,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="72.59999999999999" customHeight="1">
+    <row r="3" ht="72.65000000000001" customHeight="1">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -1814,7 +1776,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="41.1" customHeight="1">
+    <row r="4" ht="41.15" customHeight="1">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -1857,7 +1819,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="41.1" customHeight="1">
+    <row r="5" ht="41.15" customHeight="1">
       <c r="A5" t="n">
         <v>4</v>
       </c>
